--- a/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBA9B07-598A-4EBC-99C6-50515540124D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A2E986-AE8A-4981-A5F2-5FF86414D00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F658D05-DBB7-4A25-91E7-C7E26888CE80}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC7B382-CC94-47E0-9F0F-31C57886B08C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>35,22%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,78%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592E035D-2639-4679-97F8-A21966DC2DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973B8E31-82B3-4A80-AB11-FEF6E48A03F1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A2E986-AE8A-4981-A5F2-5FF86414D00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04467294-2540-4B94-AD8D-0CC79B8F8677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC7B382-CC94-47E0-9F0F-31C57886B08C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F3AD115-D28E-49B2-956D-256B5AD53C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>35,22%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,78%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973B8E31-82B3-4A80-AB11-FEF6E48A03F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448F6446-144E-4AB0-980C-5CE14C5027B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04467294-2540-4B94-AD8D-0CC79B8F8677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0294BD48-F0D1-45E6-A312-EC473DC98A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F3AD115-D28E-49B2-956D-256B5AD53C6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20C10B57-D74E-45DD-95CA-7F6260CD6FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>35,22%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,78%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448F6446-144E-4AB0-980C-5CE14C5027B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967A04F-EB85-4BA1-A236-0D903A5EA64B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0294BD48-F0D1-45E6-A312-EC473DC98A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2DC815-0CE6-47B4-8BF6-1399F647FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20C10B57-D74E-45DD-95CA-7F6260CD6FDF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D872EEB6-F148-4177-88C8-150C8A524D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967A04F-EB85-4BA1-A236-0D903A5EA64B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4292C71-FEBB-4F4B-84C1-7EA4F3A36119}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
